--- a/Unverified multiformat sources/Imports_1744_Nantes Hasna à faire corriger.xlsx
+++ b/Unverified multiformat sources/Imports_1744_Nantes Hasna à faire corriger.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F750D-29BE-5443-AC90-EE5A6F4B9FE5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A01740-6E07-2E4B-92DD-FD221415FA07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22620" windowHeight="13400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrées" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="442">
   <si>
     <t>numrodeligne</t>
   </si>
@@ -1348,6 +1348,9 @@
   </si>
   <si>
     <t>probleme</t>
+  </si>
+  <si>
+    <t>prixau 100</t>
   </si>
 </sst>
 </file>
@@ -2061,10 +2064,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomLeft" activeCell="N476" sqref="N476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32928,7 +32931,7 @@
       </c>
       <c r="P450" s="29"/>
       <c r="Q450" s="50">
-        <f t="shared" ref="Q450:Q513" si="16">N450+(0.05*O450)+(P450/240)</f>
+        <f t="shared" ref="Q450:Q482" si="16">N450+(0.05*O450)+(P450/240)</f>
         <v>15.5</v>
       </c>
       <c r="R450" s="29"/>
@@ -34428,12 +34431,14 @@
       <c r="M472" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="N472" s="28"/>
+      <c r="N472" s="28">
+        <v>0.5</v>
+      </c>
       <c r="O472" s="28"/>
       <c r="P472" s="29"/>
       <c r="Q472" s="50">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R472" s="29"/>
       <c r="S472" s="29"/>
@@ -34441,7 +34446,7 @@
       <c r="U472" s="51"/>
       <c r="V472" s="33">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="W472" s="52"/>
       <c r="X472" s="23" t="s">
@@ -34495,13 +34500,13 @@
         <v>36</v>
       </c>
       <c r="N473" s="28">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O473" s="28"/>
       <c r="P473" s="29"/>
       <c r="Q473" s="50">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R473" s="29"/>
       <c r="S473" s="29"/>
@@ -34509,11 +34514,11 @@
       <c r="U473" s="51"/>
       <c r="V473" s="33">
         <f t="shared" si="17"/>
-        <v>58100</v>
+        <v>581</v>
       </c>
       <c r="W473" s="52"/>
       <c r="X473" s="23" t="s">
-        <v>33</v>
+        <v>441</v>
       </c>
       <c r="Y473" s="22">
         <v>1</v>
@@ -34631,13 +34636,13 @@
         <v>36</v>
       </c>
       <c r="N475" s="28">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="O475" s="28"/>
       <c r="P475" s="29"/>
       <c r="Q475" s="50">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="R475" s="29"/>
       <c r="S475" s="29"/>
@@ -34645,7 +34650,7 @@
       <c r="U475" s="51"/>
       <c r="V475" s="33">
         <f t="shared" si="17"/>
-        <v>383107500</v>
+        <v>3831075</v>
       </c>
       <c r="W475" s="52"/>
       <c r="X475" s="23" t="s">
@@ -34699,13 +34704,13 @@
         <v>36</v>
       </c>
       <c r="N476" s="28">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="O476" s="28"/>
       <c r="P476" s="29"/>
       <c r="Q476" s="50">
         <f t="shared" si="16"/>
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="R476" s="29"/>
       <c r="S476" s="29"/>
@@ -34713,7 +34718,7 @@
       <c r="U476" s="51"/>
       <c r="V476" s="33">
         <f t="shared" si="17"/>
-        <v>92648000</v>
+        <v>926480</v>
       </c>
       <c r="W476" s="52"/>
       <c r="X476" s="23" t="s">
@@ -34767,13 +34772,13 @@
         <v>36</v>
       </c>
       <c r="N477" s="28">
-        <v>28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O477" s="28"/>
       <c r="P477" s="29"/>
       <c r="Q477" s="50">
         <f t="shared" si="16"/>
-        <v>28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R477" s="29"/>
       <c r="S477" s="29"/>
@@ -34781,7 +34786,7 @@
       <c r="U477" s="51"/>
       <c r="V477" s="33">
         <f t="shared" si="17"/>
-        <v>91778400</v>
+        <v>917784.00000000012</v>
       </c>
       <c r="W477" s="52"/>
       <c r="X477" s="23" t="s">
